--- a/策划案/旧配置表/Luban/卡牌表_高危流.xlsx
+++ b/策划案/旧配置表/Luban/卡牌表_高危流.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="7215" tabRatio="494"/>
+    <workbookView windowWidth="20670" windowHeight="8340" tabRatio="494"/>
   </bookViews>
   <sheets>
     <sheet name="高危流卡组" sheetId="9" r:id="rId1"/>
@@ -741,7 +741,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,9 +753,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1071,7 +1068,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:D14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1237,13 +1234,13 @@
       <c r="A11" s="3">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1251,13 +1248,13 @@
       <c r="A12" s="3">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1265,13 +1262,13 @@
       <c r="A13" s="3">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1285,7 +1282,7 @@
       <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
